--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Suite au meeting, rédaction d'une grande partie du Cahier des Charges (descriptif et fonctionnalités) et ajout de la partie architecture envoyée par Guillaume.</t>
+  </si>
+  <si>
+    <t>Redaction cahier des charges, répartition des tâches et validation du Gantt</t>
+  </si>
+  <si>
+    <t>Préparation d'un serveur discord pour organiser au mieux les discussions par groupe de travail</t>
+  </si>
+  <si>
+    <t>Lecture des conventions de codages Java pour rédaction des conventions de l'équipe</t>
   </si>
 </sst>
 </file>
@@ -487,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,22 +717,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43164</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>43164</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>43165</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -766,7 +791,7 @@
       </c>
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>19.5</v>
+        <v>23.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Lecture des conventions de codages Java pour rédaction des conventions de l'équipe</t>
+  </si>
+  <si>
+    <t>Rédaction des conventions à employer pour le code et les commentaires Java</t>
+  </si>
+  <si>
+    <t>Modélisation du schéma relationnel sur papier avec Héléna</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,14 +757,26 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
+      <c r="A25" s="3">
+        <v>43170</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -791,7 +809,7 @@
       </c>
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>23.25</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B47135F-25F0-894B-8F96-05E2671776A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -103,12 +104,24 @@
   </si>
   <si>
     <t>Modélisation du schéma relationnel sur papier avec Héléna</t>
+  </si>
+  <si>
+    <t>Retour sur le cahier des charges et le projet en général</t>
+  </si>
+  <si>
+    <t>Discussion sur les maquettes proposées par l'équipe GUI et sur le schéma relationnel. Corrections amenées.</t>
+  </si>
+  <si>
+    <t>Conception du schéma UML pour la BLL</t>
+  </si>
+  <si>
+    <t>Séance avec équipe. Team GUI est en marche, Team DB sait quoi faire, Team BLL est définie et se lancera une fois le schéma prêt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -499,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,7 +703,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43162</v>
       </c>
@@ -779,24 +792,48 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
+      <c r="A27" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
+      <c r="A29" s="3">
+        <v>43178</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>43178</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -804,12 +841,132 @@
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
-        <f>SUM(C5:C31)</f>
-        <v>24.5</v>
+      <c r="C56" s="9">
+        <f>SUM(C5:C55)</f>
+        <v>30.75</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B47135F-25F0-894B-8F96-05E2671776A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51CBF57E-CA7E-EC4C-A6AA-320F60FF6379}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Séance avec équipe. Team GUI est en marche, Team DB sait quoi faire, Team BLL est définie et se lancera une fois le schéma prêt.</t>
+  </si>
+  <si>
+    <t>Discussion sur une infrastructure pour la DB PostgreSQL avec Guillaume. On a regardé plusieurs options, la meilleure (rapidement en place et gratuite) est Amazon RDS, sauf que latence</t>
+  </si>
+  <si>
+    <t>Activation du compte Amazon RDS et mise en place de l'instance de base de données</t>
+  </si>
+  <si>
+    <t>Discussion avec Héléna des contraintes (ON DELETE, ON UPDATE) pour la DB</t>
+  </si>
+  <si>
+    <t>Mise en place de l'ordre du jour de la séance</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -703,7 +715,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43162</v>
       </c>
@@ -835,25 +847,49 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>43184</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="3">
+        <v>43185</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -966,7 +1002,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>30.75</v>
+        <v>33.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51CBF57E-CA7E-EC4C-A6AA-320F60FF6379}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8E457E18-43DC-C24B-B746-7D106C1AE36D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Mise en place de l'ordre du jour de la séance</t>
+  </si>
+  <si>
+    <t>Séance du jour, discussion avec RRH pour VM école, travail sur schéma UML avec Bryan</t>
+  </si>
+  <si>
+    <t>Travail avec Guillaume et Héléna en ce qui concerne les scripts DB et la librairie Hibernate</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,15 +897,27 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>43185</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>43187</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -1002,7 +1020,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>33.25</v>
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8E457E18-43DC-C24B-B746-7D106C1AE36D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6334A8-C813-514D-9EBE-816DA6C3126F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Travail avec Guillaume et Héléna en ce qui concerne les scripts DB et la librairie Hibernate</t>
+  </si>
+  <si>
+    <t>Discussion avec Guillaume sur des problèmes liés à Hibernate et les bases de données. Prochaine séance (lundi 9 a avril) nous prendre une décision quant à Hibernate</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,7 +724,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43162</v>
       </c>
@@ -919,15 +922,27 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>43195</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1020,7 +1035,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>36.25</v>
+        <v>37.75</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6334A8-C813-514D-9EBE-816DA6C3126F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497979F-F766-8748-93B8-8C4610D2BE71}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Discussion avec Guillaume sur des problèmes liés à Hibernate et les bases de données. Prochaine séance (lundi 9 a avril) nous prendre une décision quant à Hibernate</t>
+  </si>
+  <si>
+    <t>Séance avec équipe. On penche encore sur hibernate. La GUI avance. La BLL se précise.</t>
+  </si>
+  <si>
+    <t>Vérification des fichiers des autres membres. Manques de commentaires et certains ne respectent pas les conventions. Signalement aux membres concernés pour qu'ils changent cela rapidement.</t>
+  </si>
+  <si>
+    <t>Implémentation partielle des classes de la BLL ClientModel et ClientLogic. Commentaires (javadoc) déjà en place.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,20 +953,38 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -1035,7 +1062,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>37.75</v>
+        <v>42.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497979F-F766-8748-93B8-8C4610D2BE71}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA24088-C302-A643-A6C0-72DE004E989E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Implémentation partielle des classes de la BLL ClientModel et ClientLogic. Commentaires (javadoc) déjà en place.</t>
+  </si>
+  <si>
+    <t>Implémentation partielle des classes de la BLL BankAccountModel et BankAccountLogic. Commantaires (javadoc) déjà en place</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -986,10 +989,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1062,7 +1071,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>42.25</v>
+        <v>43.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA24088-C302-A643-A6C0-72DE004E989E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB731706-F745-064F-B14D-05F014ACC23C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Implémentation partielle des classes de la BLL BankAccountModel et BankAccountLogic. Commantaires (javadoc) déjà en place</t>
+  </si>
+  <si>
+    <t>Résolution des problèmes liés à une mauvaise utilisation de Maven. Problèmes de dépendances, de version de java, etc.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,10 +1003,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>43203</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -1071,7 +1080,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>43.25</v>
+        <v>44.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB731706-F745-064F-B14D-05F014ACC23C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CA640-B386-F349-92C3-C5E97D0A965E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Résolution des problèmes liés à une mauvaise utilisation de Maven. Problèmes de dépendances, de version de java, etc.</t>
+  </si>
+  <si>
+    <t>Ajout des méthodes demandées par Guillaume dans ClientModel</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,9 +1018,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="3">
+        <v>43203</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
@@ -1080,7 +1089,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>44.25</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CA640-B386-F349-92C3-C5E97D0A965E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE821CD3-DEC1-2A4E-8BCA-D2B05FC55A91}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Ajout des méthodes demandées par Guillaume dans ClientModel</t>
+  </si>
+  <si>
+    <t>Classe Authentication faite partiellement. En attente des fonctions de la DAL pour continuer. Modification de ClientModel et de BankAccount model et logic</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,10 +1031,16 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>43203</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -1089,7 +1098,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>44.5</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE821CD3-DEC1-2A4E-8BCA-D2B05FC55A91}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDE714-5394-D145-87CB-6CFD65382131}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Classe Authentication faite partiellement. En attente des fonctions de la DAL pour continuer. Modification de ClientModel et de BankAccount model et logic</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation intermédiaire et présentation</t>
+  </si>
+  <si>
+    <t>Clean du repo git, suppression des fichiers inutilisés</t>
+  </si>
+  <si>
+    <t>Implémentation des classes CategoryModel et CategoryLogic. Adaptation des classes précédemment faites.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1043,19 +1052,37 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="3">
+        <v>43204</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8"/>
+      <c r="A47" s="3">
+        <v>43205</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>43208</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
@@ -1098,7 +1125,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>46</v>
+        <v>49.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDE714-5394-D145-87CB-6CFD65382131}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9012F4DB-A116-BF42-A76B-596179DDC028}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Implémentation des classes CategoryModel et CategoryLogic. Adaptation des classes précédemment faites.</t>
+  </si>
+  <si>
+    <t>Travail en groupe</t>
+  </si>
+  <si>
+    <t>Travail en groupe via chat vocal</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1085,13 +1091,23 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="3">
+        <v>43213</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="3">
+        <v>43219</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1141,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>49.25</v>
+        <v>50.75</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9012F4DB-A116-BF42-A76B-596179DDC028}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71569D30-A559-E742-B384-10338B5F4C96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>Travail en groupe</t>
   </si>
   <si>
-    <t>Travail en groupe via chat vocal</t>
+    <t>Rédaction d'une partie du rapport concernant la logique métier.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1108,9 @@
       <c r="B50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -1141,7 +1143,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>50.75</v>
+        <v>51.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71569D30-A559-E742-B384-10338B5F4C96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1F40A-4FCF-4D40-9377-DBE03D553867}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Rédaction d'une partie du rapport concernant la logique métier.</t>
+  </si>
+  <si>
+    <t>Travail en groupe sur discord (voice chat) pour faire fonctionner les interactions entre la GUI et la DB (en passant par BLL et DAL) pour l'enregistrement d'un utilisateur. On a réussi, maintenant on voit ce qu'il faut faire.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,10 +1115,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>43219</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -1143,7 +1152,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>51.25</v>
+        <v>53.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1F40A-4FCF-4D40-9377-DBE03D553867}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5086126-3E31-BB4F-BCC0-1E3BDFD138A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Travail en groupe sur discord (voice chat) pour faire fonctionner les interactions entre la GUI et la DB (en passant par BLL et DAL) pour l'enregistrement d'un utilisateur. On a réussi, maintenant on voit ce qu'il faut faire.</t>
+  </si>
+  <si>
+    <t>Travail sur la connexion en groupe, travail sur le hash du password en solo. Enregistrement et connexion de l'utilisateur fonctionnent.</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,10 +1129,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -1152,7 +1161,7 @@
       </c>
       <c r="C56" s="9">
         <f>SUM(C5:C55)</f>
-        <v>53.25</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5086126-3E31-BB4F-BCC0-1E3BDFD138A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953E016-EA21-B24D-B09B-DE00C7F21450}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +180,15 @@
   </si>
   <si>
     <t>Travail sur la connexion en groupe, travail sur le hash du password en solo. Enregistrement et connexion de l'utilisateur fonctionnent.</t>
+  </si>
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t>Cleaning de certaines classes, mise en place des commentaires, corrections de certains bug et ajout des méthodes de création et de mise à jour à la base de données pour les classes existantes.</t>
+  </si>
+  <si>
+    <t>Gestion du changement de compte par défaut</t>
   </si>
 </sst>
 </file>
@@ -247,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,11 +280,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -291,6 +310,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +336,865 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7154-CC4F-AD2E-E386FB452091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="621631760"/>
+        <c:axId val="724194768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="621631760"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724194768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724194768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621631760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7C5DF2-9D80-3F41-9CFA-766AFBAF9AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,21 +1471,21 @@
     <col min="2" max="2" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43150</v>
       </c>
@@ -622,8 +1506,12 @@
       <c r="C5" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D5" s="11">
+        <f>SUM(C5:C8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43150</v>
       </c>
@@ -633,8 +1521,9 @@
       <c r="C6" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43151</v>
       </c>
@@ -644,8 +1533,9 @@
       <c r="C7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43151</v>
       </c>
@@ -655,8 +1545,9 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43157</v>
       </c>
@@ -666,8 +1557,12 @@
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D9" s="11">
+        <f>SUM(C9:C21)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43157</v>
       </c>
@@ -677,8 +1572,9 @@
       <c r="C10" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43158</v>
       </c>
@@ -688,8 +1584,9 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43158</v>
       </c>
@@ -699,8 +1596,9 @@
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43159</v>
       </c>
@@ -710,8 +1608,9 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43159</v>
       </c>
@@ -721,8 +1620,9 @@
       <c r="C14" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43160</v>
       </c>
@@ -732,8 +1632,9 @@
       <c r="C15" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43160</v>
       </c>
@@ -743,8 +1644,9 @@
       <c r="C16" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43160</v>
       </c>
@@ -754,8 +1656,9 @@
       <c r="C17" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43162</v>
       </c>
@@ -765,8 +1668,9 @@
       <c r="C18" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43162</v>
       </c>
@@ -776,8 +1680,9 @@
       <c r="C19" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43163</v>
       </c>
@@ -787,8 +1692,9 @@
       <c r="C20" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43163</v>
       </c>
@@ -798,8 +1704,9 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43164</v>
       </c>
@@ -809,8 +1716,12 @@
       <c r="C22" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D22" s="11">
+        <f>SUM(C22:C25)</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43164</v>
       </c>
@@ -820,8 +1731,9 @@
       <c r="C23" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43165</v>
       </c>
@@ -831,8 +1743,9 @@
       <c r="C24" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43170</v>
       </c>
@@ -842,8 +1755,9 @@
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43171</v>
       </c>
@@ -853,8 +1767,12 @@
       <c r="C26" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="11">
+        <f>SUM(C26:C28)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43171</v>
       </c>
@@ -864,8 +1782,9 @@
       <c r="C27" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43171</v>
       </c>
@@ -875,8 +1794,9 @@
       <c r="C28" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43178</v>
       </c>
@@ -886,8 +1806,12 @@
       <c r="C29" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D29" s="11">
+        <f>SUM(C29:C33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43178</v>
       </c>
@@ -897,8 +1821,9 @@
       <c r="C30" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43182</v>
       </c>
@@ -908,8 +1833,9 @@
       <c r="C31" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43182</v>
       </c>
@@ -919,8 +1845,9 @@
       <c r="C32" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43184</v>
       </c>
@@ -930,8 +1857,9 @@
       <c r="C33" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43185</v>
       </c>
@@ -941,8 +1869,12 @@
       <c r="C34" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D34" s="11">
+        <f>SUM(C34:C36)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43185</v>
       </c>
@@ -952,8 +1884,9 @@
       <c r="C35" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43187</v>
       </c>
@@ -963,8 +1896,9 @@
       <c r="C36" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43195</v>
       </c>
@@ -974,8 +1908,12 @@
       <c r="C37" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="10">
+        <f>SUM(C37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43199</v>
       </c>
@@ -985,8 +1923,12 @@
       <c r="C38" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D38" s="11">
+        <f>SUM(C38:C47)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43199</v>
       </c>
@@ -996,8 +1938,9 @@
       <c r="C39" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43202</v>
       </c>
@@ -1007,8 +1950,9 @@
       <c r="C40" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43202</v>
       </c>
@@ -1018,8 +1962,9 @@
       <c r="C41" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43202</v>
       </c>
@@ -1029,8 +1974,9 @@
       <c r="C42" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43203</v>
       </c>
@@ -1040,8 +1986,9 @@
       <c r="C43" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43203</v>
       </c>
@@ -1051,8 +1998,9 @@
       <c r="C44" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43203</v>
       </c>
@@ -1062,8 +2010,9 @@
       <c r="C45" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43204</v>
       </c>
@@ -1073,8 +2022,9 @@
       <c r="C46" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43205</v>
       </c>
@@ -1084,8 +2034,9 @@
       <c r="C47" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43208</v>
       </c>
@@ -1095,8 +2046,12 @@
       <c r="C48" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="10">
+        <f>SUM(C48)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43213</v>
       </c>
@@ -1106,8 +2061,12 @@
       <c r="C49" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="11">
+        <f>SUM(C49:C51)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43219</v>
       </c>
@@ -1117,8 +2076,9 @@
       <c r="C50" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43219</v>
       </c>
@@ -1128,8 +2088,9 @@
       <c r="C51" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43220</v>
       </c>
@@ -1140,35 +2101,269 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>43222</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="9">
-        <f>SUM(C5:C55)</f>
-        <v>57</v>
+      <c r="C76" s="9">
+        <f>SUM(C5:C75)</f>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D38:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553648B4-7675-E94A-BD18-60A9A7D32F28}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Feuil1!C5:C8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Feuil1!C9:C21)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>SUM(Feuil1!C22:C25)</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>SUM(Feuil1!C26:C28)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>SUM(Feuil1!C29:C33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>SUM(Feuil1!C34:C36)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Feuil1!C37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>SUM(Feuil1!C38:C47)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SUM(Feuil1!C48)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUM(Feuil1!C49:C51)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953E016-EA21-B24D-B09B-DE00C7F21450}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D72C2-B2F7-6E4D-9F0F-867FD3083339}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Gestion du changement de compte par défaut</t>
+  </si>
+  <si>
+    <t>Travail en groupe sur discord pour faire fonctionner les comptes bancaires et les catégories.</t>
+  </si>
+  <si>
+    <t>Relecture de toutes les classes des membres du groupe pour voir si les commentaires nécessaires et les noms sont corrects.</t>
   </si>
 </sst>
 </file>
@@ -315,11 +321,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,7 +1469,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1477,10 +1483,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1506,7 +1512,7 @@
       <c r="C5" s="8">
         <v>0.75</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="C6" s="8">
         <v>0.25</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1533,7 +1539,7 @@
       <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1545,7 +1551,7 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1557,7 +1563,7 @@
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="C10" s="8">
         <v>0.5</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1584,7 +1590,7 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1596,7 +1602,7 @@
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1608,7 +1614,7 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1620,7 +1626,7 @@
       <c r="C14" s="8">
         <v>1.5</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1632,7 +1638,7 @@
       <c r="C15" s="8">
         <v>0.5</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1644,7 +1650,7 @@
       <c r="C16" s="8">
         <v>0.25</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1656,7 +1662,7 @@
       <c r="C17" s="8">
         <v>1.5</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1668,7 +1674,7 @@
       <c r="C18" s="8">
         <v>0.25</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1680,7 +1686,7 @@
       <c r="C19" s="8">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1692,7 +1698,7 @@
       <c r="C20" s="8">
         <v>4.5</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1704,7 +1710,7 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1716,7 +1722,7 @@
       <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
@@ -1731,7 +1737,7 @@
       <c r="C23" s="8">
         <v>0.25</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1743,7 +1749,7 @@
       <c r="C24" s="8">
         <v>0.5</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1755,7 +1761,7 @@
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1767,7 +1773,7 @@
       <c r="C26" s="8">
         <v>0.75</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
@@ -1782,7 +1788,7 @@
       <c r="C27" s="8">
         <v>0.5</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1794,7 +1800,7 @@
       <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1806,7 +1812,7 @@
       <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
@@ -1821,7 +1827,7 @@
       <c r="C30" s="8">
         <v>1.75</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1833,7 +1839,7 @@
       <c r="C31" s="8">
         <v>1.5</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1845,7 +1851,7 @@
       <c r="C32" s="8">
         <v>0.5</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1857,7 +1863,7 @@
       <c r="C33" s="8">
         <v>0.25</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1869,7 +1875,7 @@
       <c r="C34" s="8">
         <v>0.25</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
@@ -1884,7 +1890,7 @@
       <c r="C35" s="8">
         <v>1.5</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1896,7 +1902,7 @@
       <c r="C36" s="8">
         <v>1.5</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1923,7 +1929,7 @@
       <c r="C38" s="8">
         <v>0.5</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
@@ -1938,7 +1944,7 @@
       <c r="C39" s="8">
         <v>2</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1950,7 +1956,7 @@
       <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -1962,7 +1968,7 @@
       <c r="C41" s="8">
         <v>0.5</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -1974,7 +1980,7 @@
       <c r="C42" s="8">
         <v>1</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -1986,7 +1992,7 @@
       <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -1998,7 +2004,7 @@
       <c r="C44" s="8">
         <v>0.25</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2010,7 +2016,7 @@
       <c r="C45" s="8">
         <v>1.5</v>
       </c>
-      <c r="D45" s="11"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2022,7 +2028,7 @@
       <c r="C46" s="8">
         <v>1.5</v>
       </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -2034,7 +2040,7 @@
       <c r="C47" s="8">
         <v>0.25</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -2061,7 +2067,7 @@
       <c r="C49" s="8">
         <v>1.5</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="12">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
@@ -2076,7 +2082,7 @@
       <c r="C50" s="8">
         <v>0.5</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -2088,7 +2094,7 @@
       <c r="C51" s="8">
         <v>2</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
@@ -2123,14 +2129,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>43226</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>43226</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,7 +2250,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>60.5</v>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D72C2-B2F7-6E4D-9F0F-867FD3083339}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524A53C-8F3B-4647-9D90-52CDA4B70BE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>Travail en groupe sur discord pour faire fonctionner les comptes bancaires et les catégories.</t>
   </si>
   <si>
-    <t>Relecture de toutes les classes des membres du groupe pour voir si les commentaires nécessaires et les noms sont corrects.</t>
+    <t>Relecture de toutes les classes des membres du groupe pour voir si les commentaires nécessaires et les noms sont corrects. Corrections de quelques bugs et tests de quelques fonctionnalités</t>
   </si>
 </sst>
 </file>
@@ -410,10 +410,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -443,6 +443,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,10 +1175,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,7 +1679,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43162</v>
       </c>
@@ -2106,6 +2109,10 @@
       <c r="C52" s="8">
         <v>3.75</v>
       </c>
+      <c r="D52" s="12">
+        <f>SUM(C52:C56)</f>
+        <v>12.75</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
@@ -2117,6 +2124,7 @@
       <c r="C53" s="8">
         <v>3</v>
       </c>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -2128,6 +2136,7 @@
       <c r="C54" s="8">
         <v>0.5</v>
       </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -2139,15 +2148,19 @@
       <c r="C55" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43226</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
@@ -2250,11 +2263,12 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>64.5</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D52:D56"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D21"/>
@@ -2275,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553648B4-7675-E94A-BD18-60A9A7D32F28}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2378,6 +2392,15 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>SUM(Feuil1!C52:C56)</f>
+        <v>12.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524A53C-8F3B-4647-9D90-52CDA4B70BE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFADF7F-2181-9348-9C58-57442A3EBC05}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Relecture de toutes les classes des membres du groupe pour voir si les commentaires nécessaires et les noms sont corrects. Corrections de quelques bugs et tests de quelques fonctionnalités</t>
+  </si>
+  <si>
+    <t>Corrections de bugs pour faire fonctionner la suppression et la modification des catégories dans la db.</t>
   </si>
 </sst>
 </file>
@@ -321,11 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,7 +1475,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1486,10 +1489,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1515,7 +1518,7 @@
       <c r="C5" s="8">
         <v>0.75</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
@@ -1530,7 +1533,7 @@
       <c r="C6" s="8">
         <v>0.25</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1542,7 +1545,7 @@
       <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1554,7 +1557,7 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1566,7 +1569,7 @@
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
@@ -1581,7 +1584,7 @@
       <c r="C10" s="8">
         <v>0.5</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1593,7 +1596,7 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1605,7 +1608,7 @@
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1617,7 +1620,7 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1629,7 +1632,7 @@
       <c r="C14" s="8">
         <v>1.5</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1641,7 +1644,7 @@
       <c r="C15" s="8">
         <v>0.5</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1653,7 +1656,7 @@
       <c r="C16" s="8">
         <v>0.25</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1665,7 +1668,7 @@
       <c r="C17" s="8">
         <v>1.5</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1677,7 +1680,7 @@
       <c r="C18" s="8">
         <v>0.25</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1689,7 +1692,7 @@
       <c r="C19" s="8">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1701,7 +1704,7 @@
       <c r="C20" s="8">
         <v>4.5</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1713,7 +1716,7 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1725,7 +1728,7 @@
       <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
@@ -1740,7 +1743,7 @@
       <c r="C23" s="8">
         <v>0.25</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1752,7 +1755,7 @@
       <c r="C24" s="8">
         <v>0.5</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1764,7 +1767,7 @@
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1776,7 +1779,7 @@
       <c r="C26" s="8">
         <v>0.75</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
@@ -1791,7 +1794,7 @@
       <c r="C27" s="8">
         <v>0.5</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1803,7 +1806,7 @@
       <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1815,7 +1818,7 @@
       <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
@@ -1830,7 +1833,7 @@
       <c r="C30" s="8">
         <v>1.75</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1842,7 +1845,7 @@
       <c r="C31" s="8">
         <v>1.5</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1854,7 +1857,7 @@
       <c r="C32" s="8">
         <v>0.5</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1866,7 +1869,7 @@
       <c r="C33" s="8">
         <v>0.25</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1878,7 +1881,7 @@
       <c r="C34" s="8">
         <v>0.25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
@@ -1893,7 +1896,7 @@
       <c r="C35" s="8">
         <v>1.5</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1905,7 +1908,7 @@
       <c r="C36" s="8">
         <v>1.5</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1932,7 +1935,7 @@
       <c r="C38" s="8">
         <v>0.5</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
@@ -1947,7 +1950,7 @@
       <c r="C39" s="8">
         <v>2</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1959,7 +1962,7 @@
       <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -1971,7 +1974,7 @@
       <c r="C41" s="8">
         <v>0.5</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -1983,7 +1986,7 @@
       <c r="C42" s="8">
         <v>1</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -1995,7 +1998,7 @@
       <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -2007,7 +2010,7 @@
       <c r="C44" s="8">
         <v>0.25</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2019,7 +2022,7 @@
       <c r="C45" s="8">
         <v>1.5</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2031,7 +2034,7 @@
       <c r="C46" s="8">
         <v>1.5</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -2043,7 +2046,7 @@
       <c r="C47" s="8">
         <v>0.25</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -2070,7 +2073,7 @@
       <c r="C49" s="8">
         <v>1.5</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
@@ -2085,7 +2088,7 @@
       <c r="C50" s="8">
         <v>0.5</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -2097,7 +2100,7 @@
       <c r="C51" s="8">
         <v>2</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
@@ -2109,7 +2112,7 @@
       <c r="C52" s="8">
         <v>3.75</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
@@ -2124,7 +2127,7 @@
       <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -2136,7 +2139,7 @@
       <c r="C54" s="8">
         <v>0.5</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -2148,7 +2151,7 @@
       <c r="C55" s="8">
         <v>4</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -2160,12 +2163,18 @@
       <c r="C56" s="8">
         <v>1.5</v>
       </c>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>43227</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -2263,7 +2272,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>66</v>
+        <v>68.150000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFADF7F-2181-9348-9C58-57442A3EBC05}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABA5B2-3EA2-8843-8DC5-953CFF9C5E74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Corrections de bugs pour faire fonctionner la suppression et la modification des catégories dans la db.</t>
+  </si>
+  <si>
+    <t>Préparation des méthodes pour transaction, résolutions de certains problèmes avec l'équipe et Guillaume.</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2176,13 +2179,21 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8"/>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>43227</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <v>43227</v>
+      </c>
       <c r="B59" s="4"/>
       <c r="C59" s="8"/>
     </row>
@@ -2272,7 +2283,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>68.150000000000006</v>
+        <v>69.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABA5B2-3EA2-8843-8DC5-953CFF9C5E74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41C1F3-3E5D-2749-9D22-69BC3A204031}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Préparation des méthodes pour transaction, résolutions de certains problèmes avec l'équipe et Guillaume.</t>
+  </si>
+  <si>
+    <t>Travail avec François pour mettre en place les transactions. Problème lié à la fk de budget_id, impossible de toruver la cause…</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,12 +2193,16 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43227</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -2283,7 +2290,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>69.650000000000006</v>
+        <v>71.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41C1F3-3E5D-2749-9D22-69BC3A204031}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B598203-FF48-4745-A96A-7ACD5A82C27F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Travail avec François pour mettre en place les transactions. Problème lié à la fk de budget_id, impossible de toruver la cause…</t>
+  </si>
+  <si>
+    <t>Correction du bug lié à l'ajout de transactions et amélioration de la génération de la hashmap contenant les transactions.</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1484,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2204,10 +2207,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>43228</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -2290,7 +2299,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>71.650000000000006</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B598203-FF48-4745-A96A-7ACD5A82C27F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DBAF36-BF64-A749-9D3D-1DF69EBCB2EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Correction du bug lié à l'ajout de transactions et amélioration de la génération de la hashmap contenant les transactions.</t>
+  </si>
+  <si>
+    <t>Préparation pour la mise en place de la db derby. Corrections en ce qui concerne les transactions (modifications / suppressions) qui n'étaient pas mises à jour lors d'actions. Création d'un hashmap des transactions par catégories. Implémentation, dans Authentication, d'une fonction de déconnexion (qui s'occupe de remettre tout à zéro localement). Gestion de suppression des catégories dans les trnasactions concernées.</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2218,10 +2221,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>43233</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
@@ -2299,7 +2308,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>73.650000000000006</v>
+        <v>78.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DBAF36-BF64-A749-9D3D-1DF69EBCB2EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3AA21-2C63-B74C-ADBA-D971B6012697}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Préparation pour la mise en place de la db derby. Corrections en ce qui concerne les transactions (modifications / suppressions) qui n'étaient pas mises à jour lors d'actions. Création d'un hashmap des transactions par catégories. Implémentation, dans Authentication, d'une fonction de déconnexion (qui s'occupe de remettre tout à zéro localement). Gestion de suppression des catégories dans les trnasactions concernées.</t>
+  </si>
+  <si>
+    <t>Suite de la préparation pour la mise en place de derby. Aide à la correction à d'autres niveaux (dal, gui).</t>
+  </si>
+  <si>
+    <t>h/semaine</t>
+  </si>
+  <si>
+    <t>no semaine</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +266,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +294,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -305,16 +334,44 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,11 +390,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -425,10 +530,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -461,6 +566,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,16 +1292,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1484,32 +1592,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1519,730 +1630,833 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>43150</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>0.75</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="27">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>43150</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>0.25</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="D6" s="27"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>43151</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="D7" s="27"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>43151</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>43157</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="15">
         <v>0.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="20">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>43157</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="15">
         <v>0.5</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>43158</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>43158</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="15">
         <v>0.5</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>43159</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="15">
         <v>0.5</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="D13" s="20"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>43159</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="15">
         <v>1.5</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="D14" s="20"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>43160</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="D15" s="20"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>43160</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="15">
         <v>0.25</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="D16" s="20"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>43160</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="15">
         <v>1.5</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="D17" s="20"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>43162</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="15">
         <v>0.25</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="D18" s="20"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>43162</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="D19" s="20"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>43163</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="15">
         <v>4.5</v>
       </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="D20" s="20"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>43163</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="D21" s="20"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>43164</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="27">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="E22" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>43164</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="12">
         <v>0.25</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="D23" s="27"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>43165</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="12">
         <v>0.5</v>
       </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="D24" s="27"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>43170</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="12">
         <v>0.5</v>
       </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>43171</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <v>0.75</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="20">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="E26" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>43171</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="15">
         <v>0.5</v>
       </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="D27" s="20"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>43171</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="D28" s="20"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>43178</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="27">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="E29" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>43178</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="12">
         <v>1.75</v>
       </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="D30" s="27"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>43182</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="12">
         <v>1.5</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="D31" s="27"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>43182</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="12">
         <v>0.5</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="D32" s="27"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>43184</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="12">
         <v>0.25</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>43185</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="15">
         <v>0.25</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="20">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="E34" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>43185</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="15">
         <v>1.5</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="D35" s="20"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>43187</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="15">
         <v>1.5</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="D36" s="20"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>43195</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="18">
         <f>SUM(C37)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="E37" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
         <v>43199</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="15">
         <v>0.5</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="20">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="E38" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>43199</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="D39" s="20"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
         <v>43202</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="15">
         <v>2</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="D40" s="20"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>43202</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="15">
         <v>0.5</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="D41" s="20"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>43202</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="D42" s="20"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>43203</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="D43" s="20"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
         <v>43203</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="15">
         <v>0.25</v>
       </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="D44" s="20"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>43203</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="15">
         <v>1.5</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="D45" s="20"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
         <v>43204</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="15">
         <v>1.5</v>
       </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="D46" s="20"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
         <v>43205</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="15">
         <v>0.25</v>
       </c>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="D47" s="20"/>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>43208</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="12">
         <v>1.5</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="18">
         <f>SUM(C48)</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="E48" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
         <v>43213</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="15">
         <v>1.5</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="20">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="E49" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
         <v>43219</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="15">
         <v>0.5</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="D50" s="20"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>43219</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="D51" s="20"/>
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
         <v>43220</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="12">
         <v>3.75</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="27">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="E52" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
         <v>43221</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="12">
         <v>3</v>
       </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="D53" s="27"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
         <v>43222</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="12">
         <v>0.5</v>
       </c>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="D54" s="27"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
         <v>43226</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="12">
         <v>4</v>
       </c>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="D55" s="27"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
         <v>43226</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="12">
         <v>1.5</v>
       </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
         <v>43227</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="8">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="C57" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="D57" s="20">
+        <f>SUM(C57:C62)</f>
+        <v>15.5</v>
+      </c>
+      <c r="E57" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>43227</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="D58" s="20"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
         <v>43227</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="D59" s="20"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>43228</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="D60" s="20"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
         <v>43233</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="20"/>
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>43233</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8"/>
@@ -2308,12 +2522,11 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>78.650000000000006</v>
+        <v>81.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D52:D56"/>
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D21"/>
@@ -2323,6 +2536,18 @@
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D38:D47"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="D52:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2334,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553648B4-7675-E94A-BD18-60A9A7D32F28}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2446,6 +2671,15 @@
         <v>12.75</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>SUM(Feuil1!C57:C62)</f>
+        <v>15.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3AA21-2C63-B74C-ADBA-D971B6012697}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A68867-6D05-A140-AC4D-0099C71D131A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>no semaine</t>
+  </si>
+  <si>
+    <t>Séance avec le groupe. Correction d'un problème de propriété Derby avec Guillaume, ajout de fonctionnalités demandées par la GUI, cleaning de certains fichiers</t>
+  </si>
+  <si>
+    <t>Relecture des fichiers de la DAL (qui ne doivent plus vraiment bouger), corrections de quelques soucis et mise en place de certaines méthodes pour Derby (coté BLL)</t>
+  </si>
+  <si>
+    <t>Mise en place et implémentation des classes DebtModel et DebtLogic pour la gestion des dettes. Presque tout implémenter, manque deux trois détails</t>
   </si>
 </sst>
 </file>
@@ -420,6 +429,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,12 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,7 +1604,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1612,10 +1621,10 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1647,11 +1656,11 @@
       <c r="C5" s="12">
         <v>0.75</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1665,8 +1674,8 @@
       <c r="C6" s="12">
         <v>0.25</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1678,8 +1687,8 @@
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -1691,8 +1700,8 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -1704,11 +1713,11 @@
       <c r="C9" s="15">
         <v>0.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1722,8 +1731,8 @@
       <c r="C10" s="15">
         <v>0.5</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -1735,8 +1744,8 @@
       <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -1748,8 +1757,8 @@
       <c r="C12" s="15">
         <v>0.5</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -1761,8 +1770,8 @@
       <c r="C13" s="15">
         <v>0.5</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -1774,8 +1783,8 @@
       <c r="C14" s="15">
         <v>1.5</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -1787,8 +1796,8 @@
       <c r="C15" s="15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -1800,8 +1809,8 @@
       <c r="C16" s="15">
         <v>0.25</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -1813,8 +1822,8 @@
       <c r="C17" s="15">
         <v>1.5</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -1826,8 +1835,8 @@
       <c r="C18" s="15">
         <v>0.25</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -1839,8 +1848,8 @@
       <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -1852,8 +1861,8 @@
       <c r="C20" s="15">
         <v>4.5</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -1865,8 +1874,8 @@
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -1878,11 +1887,11 @@
       <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1896,8 +1905,8 @@
       <c r="C23" s="12">
         <v>0.25</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -1909,8 +1918,8 @@
       <c r="C24" s="12">
         <v>0.5</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -1922,8 +1931,8 @@
       <c r="C25" s="12">
         <v>0.5</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
@@ -1935,11 +1944,11 @@
       <c r="C26" s="15">
         <v>0.75</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="26">
         <v>4</v>
       </c>
     </row>
@@ -1953,8 +1962,8 @@
       <c r="C27" s="15">
         <v>0.5</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
@@ -1966,8 +1975,8 @@
       <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -1979,11 +1988,11 @@
       <c r="C29" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="21">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="23">
         <v>5</v>
       </c>
     </row>
@@ -1997,8 +2006,8 @@
       <c r="C30" s="12">
         <v>1.75</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -2010,8 +2019,8 @@
       <c r="C31" s="12">
         <v>1.5</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
@@ -2023,8 +2032,8 @@
       <c r="C32" s="12">
         <v>0.5</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -2036,8 +2045,8 @@
       <c r="C33" s="12">
         <v>0.25</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
@@ -2049,11 +2058,11 @@
       <c r="C34" s="15">
         <v>0.25</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="22">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="26">
         <v>6</v>
       </c>
     </row>
@@ -2067,8 +2076,8 @@
       <c r="C35" s="15">
         <v>1.5</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="25"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -2080,8 +2089,8 @@
       <c r="C36" s="15">
         <v>1.5</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -2111,11 +2120,11 @@
       <c r="C38" s="15">
         <v>0.5</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="22">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="26">
         <v>8</v>
       </c>
     </row>
@@ -2129,8 +2138,8 @@
       <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
@@ -2142,8 +2151,8 @@
       <c r="C40" s="15">
         <v>2</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
@@ -2155,8 +2164,8 @@
       <c r="C41" s="15">
         <v>0.5</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
@@ -2168,8 +2177,8 @@
       <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
@@ -2181,8 +2190,8 @@
       <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
@@ -2194,8 +2203,8 @@
       <c r="C44" s="15">
         <v>0.25</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
@@ -2207,8 +2216,8 @@
       <c r="C45" s="15">
         <v>1.5</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="25"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
@@ -2220,8 +2229,8 @@
       <c r="C46" s="15">
         <v>1.5</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
@@ -2233,8 +2242,8 @@
       <c r="C47" s="15">
         <v>0.25</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
@@ -2264,11 +2273,11 @@
       <c r="C49" s="15">
         <v>1.5</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="22">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="26">
         <v>10</v>
       </c>
     </row>
@@ -2282,8 +2291,8 @@
       <c r="C50" s="15">
         <v>0.5</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="25"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
@@ -2295,8 +2304,8 @@
       <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
@@ -2308,11 +2317,11 @@
       <c r="C52" s="12">
         <v>3.75</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="21">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="23">
         <v>11</v>
       </c>
     </row>
@@ -2326,8 +2335,8 @@
       <c r="C53" s="12">
         <v>3</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -2339,8 +2348,8 @@
       <c r="C54" s="12">
         <v>0.5</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -2352,8 +2361,8 @@
       <c r="C55" s="12">
         <v>4</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -2365,8 +2374,8 @@
       <c r="C56" s="12">
         <v>1.5</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
@@ -2378,11 +2387,11 @@
       <c r="C57" s="15">
         <v>2.25</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="22">
         <f>SUM(C57:C62)</f>
         <v>15.5</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="26">
         <v>12</v>
       </c>
     </row>
@@ -2396,8 +2405,8 @@
       <c r="C58" s="15">
         <v>1.5</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="25"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
@@ -2409,8 +2418,8 @@
       <c r="C59" s="15">
         <v>2</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
@@ -2422,8 +2431,8 @@
       <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
@@ -2435,8 +2444,8 @@
       <c r="C61" s="15">
         <v>5</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
@@ -2448,23 +2457,41 @@
       <c r="C62" s="15">
         <v>2.75</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="8"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>43234</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>43234</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>43235</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
@@ -2522,20 +2549,11 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>81.5</v>
+        <v>85.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D38:D47"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E21"/>
@@ -2548,6 +2566,15 @@
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D38:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A68867-6D05-A140-AC4D-0099C71D131A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4AD6F4-ACA1-D34C-AB43-B93594A866A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Mise en place et implémentation des classes DebtModel et DebtLogic pour la gestion des dettes. Presque tout implémenter, manque deux trois détails</t>
+  </si>
+  <si>
+    <t>Implémentation de quelques fonctions demandées par la GUI pour les dettes / budgets</t>
+  </si>
+  <si>
+    <t>Merge de la branche master dans la branch fb-derby pour mettre à jour et implémenter la fin de derby</t>
+  </si>
+  <si>
+    <t>Corrections dans quelques problèmes dans la bll</t>
   </si>
 </sst>
 </file>
@@ -429,12 +438,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,6 +458,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,7 +1613,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1621,10 +1630,10 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1656,11 +1665,11 @@
       <c r="C5" s="12">
         <v>0.75</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="27">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1674,8 +1683,8 @@
       <c r="C6" s="12">
         <v>0.25</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1687,8 +1696,8 @@
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -1700,8 +1709,8 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -1713,11 +1722,11 @@
       <c r="C9" s="15">
         <v>0.5</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>2</v>
       </c>
     </row>
@@ -1731,8 +1740,8 @@
       <c r="C10" s="15">
         <v>0.5</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -1744,8 +1753,8 @@
       <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -1757,8 +1766,8 @@
       <c r="C12" s="15">
         <v>0.5</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -1770,8 +1779,8 @@
       <c r="C13" s="15">
         <v>0.5</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -1783,8 +1792,8 @@
       <c r="C14" s="15">
         <v>1.5</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -1796,8 +1805,8 @@
       <c r="C15" s="15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -1809,8 +1818,8 @@
       <c r="C16" s="15">
         <v>0.25</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -1822,8 +1831,8 @@
       <c r="C17" s="15">
         <v>1.5</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -1835,8 +1844,8 @@
       <c r="C18" s="15">
         <v>0.25</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -1848,8 +1857,8 @@
       <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -1861,8 +1870,8 @@
       <c r="C20" s="15">
         <v>4.5</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -1874,8 +1883,8 @@
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -1887,11 +1896,11 @@
       <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="27">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1905,8 +1914,8 @@
       <c r="C23" s="12">
         <v>0.25</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -1918,8 +1927,8 @@
       <c r="C24" s="12">
         <v>0.5</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -1931,8 +1940,8 @@
       <c r="C25" s="12">
         <v>0.5</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
@@ -1944,11 +1953,11 @@
       <c r="C26" s="15">
         <v>0.75</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>4</v>
       </c>
     </row>
@@ -1962,8 +1971,8 @@
       <c r="C27" s="15">
         <v>0.5</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="27"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
@@ -1975,8 +1984,8 @@
       <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -1988,11 +1997,11 @@
       <c r="C29" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="27">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="21">
         <v>5</v>
       </c>
     </row>
@@ -2006,8 +2015,8 @@
       <c r="C30" s="12">
         <v>1.75</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -2019,8 +2028,8 @@
       <c r="C31" s="12">
         <v>1.5</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
@@ -2032,8 +2041,8 @@
       <c r="C32" s="12">
         <v>0.5</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -2045,8 +2054,8 @@
       <c r="C33" s="12">
         <v>0.25</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
@@ -2058,11 +2067,11 @@
       <c r="C34" s="15">
         <v>0.25</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="20">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="24">
         <v>6</v>
       </c>
     </row>
@@ -2076,8 +2085,8 @@
       <c r="C35" s="15">
         <v>1.5</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -2089,8 +2098,8 @@
       <c r="C36" s="15">
         <v>1.5</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -2120,11 +2129,11 @@
       <c r="C38" s="15">
         <v>0.5</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <v>8</v>
       </c>
     </row>
@@ -2138,8 +2147,8 @@
       <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
@@ -2151,8 +2160,8 @@
       <c r="C40" s="15">
         <v>2</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="27"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
@@ -2164,8 +2173,8 @@
       <c r="C41" s="15">
         <v>0.5</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="27"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
@@ -2177,8 +2186,8 @@
       <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
@@ -2190,8 +2199,8 @@
       <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="27"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
@@ -2203,8 +2212,8 @@
       <c r="C44" s="15">
         <v>0.25</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="27"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
@@ -2216,8 +2225,8 @@
       <c r="C45" s="15">
         <v>1.5</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="27"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
@@ -2229,8 +2238,8 @@
       <c r="C46" s="15">
         <v>1.5</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="27"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
@@ -2242,8 +2251,8 @@
       <c r="C47" s="15">
         <v>0.25</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="28"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
@@ -2273,11 +2282,11 @@
       <c r="C49" s="15">
         <v>1.5</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="20">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="24">
         <v>10</v>
       </c>
     </row>
@@ -2291,8 +2300,8 @@
       <c r="C50" s="15">
         <v>0.5</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="27"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
@@ -2304,8 +2313,8 @@
       <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="28"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
@@ -2317,11 +2326,11 @@
       <c r="C52" s="12">
         <v>3.75</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="27">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <v>11</v>
       </c>
     </row>
@@ -2335,8 +2344,8 @@
       <c r="C53" s="12">
         <v>3</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="24"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -2348,8 +2357,8 @@
       <c r="C54" s="12">
         <v>0.5</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="24"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -2361,8 +2370,8 @@
       <c r="C55" s="12">
         <v>4</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="24"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -2374,8 +2383,8 @@
       <c r="C56" s="12">
         <v>1.5</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="25"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
@@ -2387,11 +2396,11 @@
       <c r="C57" s="15">
         <v>2.25</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="20">
         <f>SUM(C57:C62)</f>
         <v>15.5</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="24">
         <v>12</v>
       </c>
     </row>
@@ -2405,8 +2414,8 @@
       <c r="C58" s="15">
         <v>1.5</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
@@ -2418,8 +2427,8 @@
       <c r="C59" s="15">
         <v>2</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="27"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
@@ -2431,8 +2440,8 @@
       <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="27"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
@@ -2444,8 +2453,8 @@
       <c r="C61" s="15">
         <v>5</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="27"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
@@ -2457,8 +2466,8 @@
       <c r="C62" s="15">
         <v>2.75</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="28"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
@@ -2493,20 +2502,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="8"/>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
+      <c r="A68" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
@@ -2549,11 +2576,20 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>85.5</v>
+        <v>89.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D38:D47"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E21"/>
@@ -2566,15 +2602,6 @@
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D38:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4AD6F4-ACA1-D34C-AB43-B93594A866A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5095B2F-2445-D54E-8822-60EF34736FBD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
     <t>Merge de la branche master dans la branch fb-derby pour mettre à jour et implémenter la fin de derby</t>
   </si>
   <si>
-    <t>Corrections dans quelques problèmes dans la bll</t>
+    <t>Corrections de quelques problèmes dans la bll</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5095B2F-2445-D54E-8822-60EF34736FBD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD96EF1A-7A7C-324B-BE75-7105647F1ED7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Corrections de quelques problèmes dans la bll</t>
+  </si>
+  <si>
+    <t>Travail en groupe pour faire fonctionner les budgets, les budgets partagés et les dettes. Quelques bugs restent à corriger, mais presquefini.</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2535,10 +2538,16 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -2576,7 +2585,7 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>89.75</v>
+        <v>93.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD96EF1A-7A7C-324B-BE75-7105647F1ED7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09EE0D-2C61-B24D-93B3-3FB6FD605A45}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -239,7 +239,10 @@
     <t>Corrections de quelques problèmes dans la bll</t>
   </si>
   <si>
-    <t>Travail en groupe pour faire fonctionner les budgets, les budgets partagés et les dettes. Quelques bugs restent à corriger, mais presquefini.</t>
+    <t>Travail en groupe pour faire fonctionner les budgets, les budgets partagés et les dettes. Quelques bugs restent à corriger, mais presque fini.</t>
+  </si>
+  <si>
+    <t>Mis à jour de la branche fb-derby avec la branche master, on doit encore vérifier que tout marche avec Derby puis on merge les deux branches. On a essayer de créer le jar avec Guillaume, pas réussi. Problème de manifest, on check plus tard.</t>
   </si>
 </sst>
 </file>
@@ -441,6 +444,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,12 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1619,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,10 +1636,10 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1668,11 +1671,11 @@
       <c r="C5" s="12">
         <v>0.75</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1686,8 +1689,8 @@
       <c r="C6" s="12">
         <v>0.25</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1699,8 +1702,8 @@
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -1712,8 +1715,8 @@
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -1725,11 +1728,11 @@
       <c r="C9" s="15">
         <v>0.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <f>SUM(C9:C21)</f>
         <v>15.5</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1743,8 +1746,8 @@
       <c r="C10" s="15">
         <v>0.5</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -1756,8 +1759,8 @@
       <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -1769,8 +1772,8 @@
       <c r="C12" s="15">
         <v>0.5</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -1782,8 +1785,8 @@
       <c r="C13" s="15">
         <v>0.5</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -1795,8 +1798,8 @@
       <c r="C14" s="15">
         <v>1.5</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -1808,8 +1811,8 @@
       <c r="C15" s="15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -1821,8 +1824,8 @@
       <c r="C16" s="15">
         <v>0.25</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -1834,8 +1837,8 @@
       <c r="C17" s="15">
         <v>1.5</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -1847,8 +1850,8 @@
       <c r="C18" s="15">
         <v>0.25</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -1860,8 +1863,8 @@
       <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -1873,8 +1876,8 @@
       <c r="C20" s="15">
         <v>4.5</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -1886,8 +1889,8 @@
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -1899,11 +1902,11 @@
       <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <f>SUM(C22:C25)</f>
         <v>4.25</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1917,8 +1920,8 @@
       <c r="C23" s="12">
         <v>0.25</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
@@ -1930,8 +1933,8 @@
       <c r="C24" s="12">
         <v>0.5</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -1943,8 +1946,8 @@
       <c r="C25" s="12">
         <v>0.5</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
@@ -1956,11 +1959,11 @@
       <c r="C26" s="15">
         <v>0.75</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <f>SUM(C26:C28)</f>
         <v>2.25</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="26">
         <v>4</v>
       </c>
     </row>
@@ -1974,8 +1977,8 @@
       <c r="C27" s="15">
         <v>0.5</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
@@ -1987,8 +1990,8 @@
       <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -2000,11 +2003,11 @@
       <c r="C29" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="21">
         <f>SUM(C29:C33)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="23">
         <v>5</v>
       </c>
     </row>
@@ -2018,8 +2021,8 @@
       <c r="C30" s="12">
         <v>1.75</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -2031,8 +2034,8 @@
       <c r="C31" s="12">
         <v>1.5</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
@@ -2044,8 +2047,8 @@
       <c r="C32" s="12">
         <v>0.5</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -2057,8 +2060,8 @@
       <c r="C33" s="12">
         <v>0.25</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
@@ -2070,11 +2073,11 @@
       <c r="C34" s="15">
         <v>0.25</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="22">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="26">
         <v>6</v>
       </c>
     </row>
@@ -2088,8 +2091,8 @@
       <c r="C35" s="15">
         <v>1.5</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="25"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -2101,8 +2104,8 @@
       <c r="C36" s="15">
         <v>1.5</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -2132,11 +2135,11 @@
       <c r="C38" s="15">
         <v>0.5</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="22">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="26">
         <v>8</v>
       </c>
     </row>
@@ -2150,8 +2153,8 @@
       <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
@@ -2163,8 +2166,8 @@
       <c r="C40" s="15">
         <v>2</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
@@ -2176,8 +2179,8 @@
       <c r="C41" s="15">
         <v>0.5</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
@@ -2189,8 +2192,8 @@
       <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
@@ -2202,8 +2205,8 @@
       <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
@@ -2215,8 +2218,8 @@
       <c r="C44" s="15">
         <v>0.25</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
@@ -2228,8 +2231,8 @@
       <c r="C45" s="15">
         <v>1.5</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="25"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
@@ -2241,8 +2244,8 @@
       <c r="C46" s="15">
         <v>1.5</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
@@ -2254,8 +2257,8 @@
       <c r="C47" s="15">
         <v>0.25</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
@@ -2285,11 +2288,11 @@
       <c r="C49" s="15">
         <v>1.5</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="22">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="26">
         <v>10</v>
       </c>
     </row>
@@ -2303,8 +2306,8 @@
       <c r="C50" s="15">
         <v>0.5</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="25"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
@@ -2316,8 +2319,8 @@
       <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
@@ -2329,11 +2332,11 @@
       <c r="C52" s="12">
         <v>3.75</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="21">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="23">
         <v>11</v>
       </c>
     </row>
@@ -2347,8 +2350,8 @@
       <c r="C53" s="12">
         <v>3</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -2360,8 +2363,8 @@
       <c r="C54" s="12">
         <v>0.5</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -2373,8 +2376,8 @@
       <c r="C55" s="12">
         <v>4</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -2386,8 +2389,8 @@
       <c r="C56" s="12">
         <v>1.5</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
@@ -2399,11 +2402,11 @@
       <c r="C57" s="15">
         <v>2.25</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="22">
         <f>SUM(C57:C62)</f>
         <v>15.5</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="26">
         <v>12</v>
       </c>
     </row>
@@ -2417,8 +2420,8 @@
       <c r="C58" s="15">
         <v>1.5</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="25"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
@@ -2430,8 +2433,8 @@
       <c r="C59" s="15">
         <v>2</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
@@ -2443,8 +2446,8 @@
       <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
@@ -2456,8 +2459,8 @@
       <c r="C61" s="15">
         <v>5</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
@@ -2469,8 +2472,8 @@
       <c r="C62" s="15">
         <v>2.75</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="26"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
@@ -2549,10 +2552,16 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="8"/>
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>43238</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
@@ -2585,20 +2594,11 @@
       </c>
       <c r="C76" s="9">
         <f>SUM(C5:C75)</f>
-        <v>93.25</v>
+        <v>94.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D38:D47"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E21"/>
@@ -2611,6 +2611,15 @@
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D38:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Daniel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09EE0D-2C61-B24D-93B3-3FB6FD605A45}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3868BBE-1B55-AD46-904D-D399E32E7016}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Discussion avec le groupe concernant les fonctionnalités et le nom de l'application tout au long de la journée</t>
   </si>
   <si>
-    <t>Eclaircissement d'un problème organisationnel avec Guillaume</t>
-  </si>
-  <si>
     <t>Discussion concernant la structure et d'éventuels Frameworks à utiliser pour la réalisation du projet.</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Relecture du document concernant les fonctionnalités, précisions de certains aspect et choix des fonctionnalités optionnelles ou non.</t>
   </si>
   <si>
-    <t>Meeting de toute l'équipe. Nous avons discuté et validé les fonctionnalités, nous avons débattu de l'architecture et des bases de données et des éventuels frameworks (démonstration par Guillaume) et nous avons commencé à définir des tâches claires et précises pour pouvoir plannifier et réaliser le diagramme de Gantt</t>
-  </si>
-  <si>
     <t>Suite au meeting, rédaction d'une grande partie du Cahier des Charges (descriptif et fonctionnalités) et ajout de la partie architecture envoyée par Guillaume.</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Préparation d'un serveur discord pour organiser au mieux les discussions par groupe de travail</t>
   </si>
   <si>
-    <t>Lecture des conventions de codages Java pour rédaction des conventions de l'équipe</t>
-  </si>
-  <si>
     <t>Rédaction des conventions à employer pour le code et les commentaires Java</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>Séance avec équipe. Team GUI est en marche, Team DB sait quoi faire, Team BLL est définie et se lancera une fois le schéma prêt.</t>
   </si>
   <si>
-    <t>Discussion sur une infrastructure pour la DB PostgreSQL avec Guillaume. On a regardé plusieurs options, la meilleure (rapidement en place et gratuite) est Amazon RDS, sauf que latence</t>
-  </si>
-  <si>
     <t>Activation du compte Amazon RDS et mise en place de l'instance de base de données</t>
   </si>
   <si>
@@ -131,18 +119,9 @@
     <t>Mise en place de l'ordre du jour de la séance</t>
   </si>
   <si>
-    <t>Séance du jour, discussion avec RRH pour VM école, travail sur schéma UML avec Bryan</t>
-  </si>
-  <si>
     <t>Travail avec Guillaume et Héléna en ce qui concerne les scripts DB et la librairie Hibernate</t>
   </si>
   <si>
-    <t>Discussion avec Guillaume sur des problèmes liés à Hibernate et les bases de données. Prochaine séance (lundi 9 a avril) nous prendre une décision quant à Hibernate</t>
-  </si>
-  <si>
-    <t>Séance avec équipe. On penche encore sur hibernate. La GUI avance. La BLL se précise.</t>
-  </si>
-  <si>
     <t>Vérification des fichiers des autres membres. Manques de commentaires et certains ne respectent pas les conventions. Signalement aux membres concernés pour qu'ils changent cela rapidement.</t>
   </si>
   <si>
@@ -176,18 +155,12 @@
     <t>Rédaction d'une partie du rapport concernant la logique métier.</t>
   </si>
   <si>
-    <t>Travail en groupe sur discord (voice chat) pour faire fonctionner les interactions entre la GUI et la DB (en passant par BLL et DAL) pour l'enregistrement d'un utilisateur. On a réussi, maintenant on voit ce qu'il faut faire.</t>
-  </si>
-  <si>
     <t>Travail sur la connexion en groupe, travail sur le hash du password en solo. Enregistrement et connexion de l'utilisateur fonctionnent.</t>
   </si>
   <si>
     <t>Semaine</t>
   </si>
   <si>
-    <t>Cleaning de certaines classes, mise en place des commentaires, corrections de certains bug et ajout des méthodes de création et de mise à jour à la base de données pour les classes existantes.</t>
-  </si>
-  <si>
     <t>Gestion du changement de compte par défaut</t>
   </si>
   <si>
@@ -200,30 +173,12 @@
     <t>Corrections de bugs pour faire fonctionner la suppression et la modification des catégories dans la db.</t>
   </si>
   <si>
-    <t>Préparation des méthodes pour transaction, résolutions de certains problèmes avec l'équipe et Guillaume.</t>
-  </si>
-  <si>
-    <t>Travail avec François pour mettre en place les transactions. Problème lié à la fk de budget_id, impossible de toruver la cause…</t>
-  </si>
-  <si>
     <t>Correction du bug lié à l'ajout de transactions et amélioration de la génération de la hashmap contenant les transactions.</t>
   </si>
   <si>
-    <t>Préparation pour la mise en place de la db derby. Corrections en ce qui concerne les transactions (modifications / suppressions) qui n'étaient pas mises à jour lors d'actions. Création d'un hashmap des transactions par catégories. Implémentation, dans Authentication, d'une fonction de déconnexion (qui s'occupe de remettre tout à zéro localement). Gestion de suppression des catégories dans les trnasactions concernées.</t>
-  </si>
-  <si>
     <t>Suite de la préparation pour la mise en place de derby. Aide à la correction à d'autres niveaux (dal, gui).</t>
   </si>
   <si>
-    <t>h/semaine</t>
-  </si>
-  <si>
-    <t>no semaine</t>
-  </si>
-  <si>
-    <t>Séance avec le groupe. Correction d'un problème de propriété Derby avec Guillaume, ajout de fonctionnalités demandées par la GUI, cleaning de certains fichiers</t>
-  </si>
-  <si>
     <t>Relecture des fichiers de la DAL (qui ne doivent plus vraiment bouger), corrections de quelques soucis et mise en place de certaines méthodes pour Derby (coté BLL)</t>
   </si>
   <si>
@@ -233,16 +188,69 @@
     <t>Implémentation de quelques fonctions demandées par la GUI pour les dettes / budgets</t>
   </si>
   <si>
-    <t>Merge de la branche master dans la branch fb-derby pour mettre à jour et implémenter la fin de derby</t>
-  </si>
-  <si>
     <t>Corrections de quelques problèmes dans la bll</t>
   </si>
   <si>
     <t>Travail en groupe pour faire fonctionner les budgets, les budgets partagés et les dettes. Quelques bugs restent à corriger, mais presque fini.</t>
   </si>
   <si>
-    <t>Mis à jour de la branche fb-derby avec la branche master, on doit encore vérifier que tout marche avec Derby puis on merge les deux branches. On a essayer de créer le jar avec Guillaume, pas réussi. Problème de manifest, on check plus tard.</t>
+    <t>semaine</t>
+  </si>
+  <si>
+    <t>total par 
+semaine</t>
+  </si>
+  <si>
+    <t>Éclaircissement d'un problème organisationnel avec Guillaume</t>
+  </si>
+  <si>
+    <t>Meeting de toute l'équipe. Nous avons discuté et validé les fonctionnalités, nous avons débattu sur l'architecture et les bases de données utiliables et des éventuels frameworks (démonstration par Guillaume) et nous avons commencé à définir des tâches claires et précises pour pouvoir plannifier et réaliser le diagramme de Gantt</t>
+  </si>
+  <si>
+    <t>Lecture des conventions de codages Java pour rédaction des conventions de l'équipe et discussion avec certains membres du groupe pour débloquer des questions.</t>
+  </si>
+  <si>
+    <t>Discussion sur une infrastructure pour la DB PostgreSQL avec Guillaume. On a regardé plusieurs options, la meilleure (rapidement en place et gratuite) est Amazon RDS, sauf qu'il y a une latence importante</t>
+  </si>
+  <si>
+    <t>Séance du jour, discussion avec RRH pour une VM à école, travail sur schéma UML avec Bryan</t>
+  </si>
+  <si>
+    <t>Discussion avec Guillaume sur des problèmes liés à Hibernate et les bases de données. Prochaine séance (lundi 9 avril) nous prendrons une décision quant à Hibernate</t>
+  </si>
+  <si>
+    <t>Séance avec équipe. On continue encore sur hibernate. La GUI avance. La BLL se précise.</t>
+  </si>
+  <si>
+    <t>Travail en groupe sur discord (voice chat) pour faire fonctionner les interactions entre la GUI et la DB (en passant par BLL et DAL) pour l'enregistrement d'un utilisateur. Nous avons réussi, maintenant nous voyons ce qu'il faut faire.</t>
+  </si>
+  <si>
+    <t>Nettoyage de certaines classes, mise en place des commentaires, corrections de certains bugs et ajout des méthodes de création et de mise à jour à la base de données pour les classes existantes.</t>
+  </si>
+  <si>
+    <t>Préparation des méthodes pour les transactions, résolutions de certains problèmes entre l'équipe et Guillaume.</t>
+  </si>
+  <si>
+    <t>Travail avec François pour mettre en place les transactions. Problème lié à la fk de budget_id, impossible de trouver la cause…</t>
+  </si>
+  <si>
+    <t>Préparation pour la mise en place de la db derby. Corrections en ce qui concerne les transactions (modifications / suppressions) qui n'étaient pas mises à jour lors d'actions. Création d'une hashmap des transactions par catégories. Implémentation, dans Authentication, d'une fonction de déconnexion (qui s'occupe de remettre tout à zéro localement). Gestion de suppression des catégories dans les transactions concernées.</t>
+  </si>
+  <si>
+    <t>Séance avec le groupe. Correction d'un problème de propriété Derby avec Guillaume, ajout de fonctionnalités demandées par la GUI, nettoyage de certains fichiers</t>
+  </si>
+  <si>
+    <t>Mise à jour de la branche fb-derby avec la branche master pour continuer d'implémenter la solution avec derby</t>
+  </si>
+  <si>
+    <t>Mise à jour de la branche fb-derby avec la branche master, on doit encore vérifier que tout marche avec Derby puis on merge les deux branches. On a essayer de créer le jar avec Guillaume, pas réussi. Problème de manifest, on regade plus tard.</t>
+  </si>
+  <si>
+    <t>Corrections des bugs avec Derby sur la branche fb-derby avant de merge sur la branche principale. Les branches ont été fusionnées sans poblème.
+Écriture du rapport et du bilan personnel. Préparations de quelques issues sur github pour les derniers changements avant rendu. Discussion avec les membres du groupes sur ces dernières.</t>
+  </si>
+  <si>
+    <t>Relecture des documents à rendre (rapport, guides), écriture des derniers paragraphes, exécution des tests de validité pour intégration au rapport ainsi qu'impression et reliure de tous les documents.</t>
   </si>
 </sst>
 </file>
@@ -395,22 +403,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,12 +443,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,6 +462,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,16 +573,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.25</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.25</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.25</c:v>
@@ -1616,35 +1627,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,951 +1666,984 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
+      <c r="D4" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>43150</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>0.75</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="24">
         <f>SUM(C5:C8)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>43150</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0.25</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>43151</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>43151</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>43157</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>0.5</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <f>SUM(C9:C21)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E9" s="26">
+        <v>16.5</v>
+      </c>
+      <c r="E9" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>43157</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.5</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="D10" s="17"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>43158</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>43158</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>43159</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.5</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>43159</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C14" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>43160</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>43160</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>43160</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>43162</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>43162</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>43163</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>43163</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>43164</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="24">
+        <f>SUM(C22:C25)</f>
+        <v>4.75</v>
+      </c>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>43164</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>43165</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>43170</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
         <v>0.5</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>43159</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="D25" s="24"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>43171</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <f>SUM(C26:C28)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>43171</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>43171</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>43178</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="24">
+        <f>SUM(C29:C33)</f>
+        <v>7.25</v>
+      </c>
+      <c r="E29" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>43178</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>43182</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="9">
         <v>1.5</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>43160</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="D31" s="24"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>43182</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="9">
         <v>0.5</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>43160</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="D32" s="24"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>43184</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>43185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="12">
         <v>0.25</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>43160</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>43162</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>43162</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>43163</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>43163</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="15">
-        <v>2</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>43164</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="12">
-        <v>3</v>
-      </c>
-      <c r="D22" s="21">
-        <f>SUM(C22:C25)</f>
-        <v>4.25</v>
-      </c>
-      <c r="E22" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>43164</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>43165</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>43170</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>43171</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="D26" s="22">
-        <f>SUM(C26:C28)</f>
-        <v>2.25</v>
-      </c>
-      <c r="E26" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>43171</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
-        <v>43171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>43178</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12">
-        <v>3</v>
-      </c>
-      <c r="D29" s="21">
-        <f>SUM(C29:C33)</f>
-        <v>7</v>
-      </c>
-      <c r="E29" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>43178</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>43182</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>43182</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>43184</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>43185</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="D34" s="17">
         <f>SUM(C34:C36)</f>
         <v>3.25</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="10">
         <v>43185</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="12">
         <v>1.5</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="10">
         <v>43187</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="12">
         <v>1.5</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>43195</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="9">
         <v>1</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="15">
         <f>SUM(C37)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>43199</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="12">
         <v>0.5</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="17">
         <f>SUM(C38:C47)</f>
         <v>10.5</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>43199</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>43202</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>43202</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>43202</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>43203</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>43203</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>43203</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>43204</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="15">
-        <v>2</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
-        <v>43202</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="C46" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>43205</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>43208</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="15">
-        <v>2</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>43202</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
-        <v>43202</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
-        <v>43203</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="15">
-        <v>1</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
-        <v>43203</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
-        <v>43203</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="C48" s="9">
         <v>1.5</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
-        <v>43204</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
-        <v>43205</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <v>43208</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D48" s="18">
+      <c r="D48" s="15">
         <f>SUM(C48)</f>
         <v>1.5</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="10">
         <v>43213</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="15">
+      <c r="B49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="12">
         <v>1.5</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="17">
         <f>SUM(C49:C51)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="10">
         <v>43219</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="15">
+      <c r="B50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="12">
         <v>0.5</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="27"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="10">
         <v>43219</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="15">
+      <c r="B51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="12">
         <v>2</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
+      <c r="D51" s="17"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>43220</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="9">
         <v>3.75</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="24">
         <f>SUM(C52:C56)</f>
         <v>12.75</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+      <c r="A53" s="7">
         <v>43221</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="9">
         <v>3</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="7">
         <v>43222</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="12">
+      <c r="B54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="9">
         <v>0.5</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
+      <c r="A55" s="7">
         <v>43226</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="12">
+      <c r="B55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="9">
         <v>4</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="D55" s="24"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
         <v>43226</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="B56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="9">
         <v>1.5</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>43227</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="15">
+      <c r="B57" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="12">
         <v>2.25</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="17">
         <f>SUM(C57:C62)</f>
         <v>15.5</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>43227</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="15">
+      <c r="B58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="12">
         <v>1.5</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="D58" s="17"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
         <v>43227</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="15">
+      <c r="B59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="12">
         <v>2</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="27"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="10">
         <v>43228</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="15">
+      <c r="B60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="12">
         <v>2</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="27"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="10">
         <v>43233</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="15">
+      <c r="B61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="12">
         <v>5</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="27"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="10">
         <v>43233</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="15">
+      <c r="B62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="12">
         <v>2.75</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="28"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="23"/>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="7">
         <v>43234</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="9">
         <v>1.5</v>
       </c>
+      <c r="D63" s="27">
+        <f>SUM(C63:C72)</f>
+        <v>24</v>
+      </c>
+      <c r="E63" s="18">
+        <v>13</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="7">
         <v>43234</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="D64" s="28"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
         <v>43235</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="D65" s="28"/>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
         <v>43236</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="D66" s="28"/>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
         <v>43236</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="8">
+      <c r="B67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="D67" s="28"/>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
         <v>43236</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="8">
+      <c r="B68" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="D68" s="28"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>43236</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="8">
+      <c r="B69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="D69" s="28"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
         <v>43238</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>43238</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="9">
+        <v>7</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>43239</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="9">
+        <v>4</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="9">
-        <f>SUM(C5:C75)</f>
-        <v>94.5</v>
+      <c r="C73" s="6">
+        <f>SUM(C5:C72)</f>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D38:D47"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E21"/>
@@ -2611,15 +2656,6 @@
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D38:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2641,7 +2677,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,7 +2695,7 @@
       </c>
       <c r="B3">
         <f>SUM(Feuil1!C9:C21)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2668,7 +2704,7 @@
       </c>
       <c r="B4">
         <f>SUM(Feuil1!C22:C25)</f>
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2677,7 +2713,7 @@
       </c>
       <c r="B5">
         <f>SUM(Feuil1!C26:C28)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +2722,7 @@
       </c>
       <c r="B6">
         <f>SUM(Feuil1!C29:C33)</f>
-        <v>7</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
